--- a/August 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
+++ b/August 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
@@ -322,30 +322,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -371,6 +347,30 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,40 +474,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15.7748612803644</c:v>
+                  <c:v>22.0267892676044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.8598221987023</c:v>
+                  <c:v>22.062118046998901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.8716576687405</c:v>
+                  <c:v>22.0802512311915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.901653461366999</c:v>
+                  <c:v>22.125044752723401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.7929309028625</c:v>
+                  <c:v>21.9723253035082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.690110418884501</c:v>
+                  <c:v>21.8272251647251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.6449384137475</c:v>
+                  <c:v>21.626934833045098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.6268016811658</c:v>
+                  <c:v>21.4266445013651</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.503396298257099</c:v>
+                  <c:v>21.1549689011471</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.3254547153484</c:v>
+                  <c:v>20.821996041665301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.092976932439599</c:v>
+                  <c:v>20.413285117667499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.805962949530899</c:v>
+                  <c:v>19.822857763708701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,40 +600,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>18.160832902933901</c:v>
+                  <c:v>25.469993761509301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.1993376652735</c:v>
+                  <c:v>25.430626613748601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.1717407898734</c:v>
+                  <c:v>25.391581226607901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.130184952673201</c:v>
+                  <c:v>25.3306436858749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.980095042698903</c:v>
+                  <c:v>25.082779225556102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.852211916724499</c:v>
+                  <c:v>24.864527389753498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.801127789800699</c:v>
+                  <c:v>24.6208939646543</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.778153895587899</c:v>
+                  <c:v>24.3903884707379</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.630562704524202</c:v>
+                  <c:v>24.069133875134501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.4284353134606</c:v>
+                  <c:v>23.687818035660101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.171771722396898</c:v>
+                  <c:v>23.230764131669599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.860571931333197</c:v>
+                  <c:v>22.582325201719701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,40 +726,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20.647252408292402</c:v>
+                  <c:v>28.917188730918099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.722674613880798</c:v>
+                  <c:v>28.908585802204698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.708674875266702</c:v>
+                  <c:v>28.885336047102601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.694313311638602</c:v>
+                  <c:v>28.855989770446502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.539266071575803</c:v>
+                  <c:v>28.596435432257699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.406425615512902</c:v>
+                  <c:v>28.366493718584998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.366434348787902</c:v>
+                  <c:v>28.1357966286572</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.354553314773899</c:v>
+                  <c:v>27.9182274699122</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.262426424704202</c:v>
+                  <c:v>27.6616545501657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.115763334634501</c:v>
+                  <c:v>27.345020386548299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.914564044564798</c:v>
+                  <c:v>26.952648158414799</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.658828554495098</c:v>
+                  <c:v>26.381827239493298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,7 +1576,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
-          <c:min val="14"/>
+          <c:min val="18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,29 +4998,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="7" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -5050,24 +5050,24 @@
       <c r="AV1" s="3"/>
     </row>
     <row r="2" spans="1:68" s="4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -5082,58 +5082,58 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="BC2" s="18" t="s">
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="BC2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10"/>
     </row>
     <row r="3" spans="1:68" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -5476,15 +5476,15 @@
       </c>
       <c r="C6">
         <f>X63</f>
-        <v>15.7748612803644</v>
+        <v>22.0267892676044</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:E17" si="2">Y63</f>
-        <v>18.160832902933901</v>
+        <v>25.469993761509301</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>20.647252408292402</v>
+        <v>28.917188730918099</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -5610,15 +5610,15 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C17" si="3">X64</f>
-        <v>15.8598221987023</v>
+        <v>22.062118046998901</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>18.1993376652735</v>
+        <v>25.430626613748601</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>20.722674613880798</v>
+        <v>28.908585802204698</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
@@ -5690,15 +5690,15 @@
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>15.8716576687405</v>
+        <v>22.0802512311915</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>18.1717407898734</v>
+        <v>25.391581226607901</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>20.708674875266702</v>
+        <v>28.885336047102601</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -5770,15 +5770,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>15.901653461366999</v>
+        <v>22.125044752723401</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>18.130184952673201</v>
+        <v>25.3306436858749</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>20.694313311638602</v>
+        <v>28.855989770446502</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -5904,15 +5904,15 @@
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>15.7929309028625</v>
+        <v>21.9723253035082</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>17.980095042698903</v>
+        <v>25.082779225556102</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>20.539266071575803</v>
+        <v>28.596435432257699</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -6038,15 +6038,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>15.690110418884501</v>
+        <v>21.8272251647251</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>17.852211916724499</v>
+        <v>24.864527389753498</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>20.406425615512902</v>
+        <v>28.366493718584998</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -6172,15 +6172,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>15.6449384137475</v>
+        <v>21.626934833045098</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>17.801127789800699</v>
+        <v>24.6208939646543</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>20.366434348787902</v>
+        <v>28.1357966286572</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -6252,15 +6252,15 @@
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>15.6268016811658</v>
+        <v>21.4266445013651</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>17.778153895587899</v>
+        <v>24.3903884707379</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>20.354553314773899</v>
+        <v>27.9182274699122</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -6332,15 +6332,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>15.503396298257099</v>
+        <v>21.1549689011471</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>17.630562704524202</v>
+        <v>24.069133875134501</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>20.262426424704202</v>
+        <v>27.6616545501657</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
@@ -6466,15 +6466,15 @@
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>15.3254547153484</v>
+        <v>20.821996041665301</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>17.4284353134606</v>
+        <v>23.687818035660101</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>20.115763334634501</v>
+        <v>27.345020386548299</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -6600,15 +6600,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>15.092976932439599</v>
+        <v>20.413285117667499</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>17.171771722396898</v>
+        <v>23.230764131669599</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>19.914564044564798</v>
+        <v>26.952648158414799</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
@@ -6692,15 +6692,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>14.805962949530899</v>
+        <v>19.822857763708701</v>
       </c>
       <c r="D17">
         <f>Y74</f>
-        <v>16.860571931333197</v>
+        <v>22.582325201719701</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>19.658828554495098</v>
+        <v>26.381827239493298</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -6898,20 +6898,20 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="45" spans="22:76" x14ac:dyDescent="0.25">
-      <c r="BK45" s="11"/>
-      <c r="BL45" s="11"/>
-      <c r="BM45" s="11"/>
-      <c r="BN45" s="11"/>
-      <c r="BO45" s="11"/>
-      <c r="BP45" s="11"/>
-      <c r="BQ45" s="11"/>
-      <c r="BR45" s="11"/>
-      <c r="BS45" s="11"/>
-      <c r="BT45" s="11"/>
-      <c r="BU45" s="11"/>
-      <c r="BV45" s="11"/>
-      <c r="BW45" s="11"/>
-      <c r="BX45" s="11"/>
+      <c r="BK45" s="20"/>
+      <c r="BL45" s="20"/>
+      <c r="BM45" s="20"/>
+      <c r="BN45" s="20"/>
+      <c r="BO45" s="20"/>
+      <c r="BP45" s="20"/>
+      <c r="BQ45" s="20"/>
+      <c r="BR45" s="20"/>
+      <c r="BS45" s="20"/>
+      <c r="BT45" s="20"/>
+      <c r="BU45" s="20"/>
+      <c r="BV45" s="20"/>
+      <c r="BW45" s="20"/>
+      <c r="BX45" s="20"/>
     </row>
     <row r="46" spans="22:76" x14ac:dyDescent="0.25">
       <c r="BK46" s="7"/>
@@ -7136,56 +7136,56 @@
       <c r="BX58" s="7"/>
     </row>
     <row r="59" spans="1:76" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="13"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13"/>
-      <c r="AG59" s="13"/>
-      <c r="AH59" s="13"/>
-      <c r="AI59" s="13"/>
-      <c r="AJ59" s="13"/>
-      <c r="AK59" s="13"/>
-      <c r="AL59" s="13"/>
-      <c r="AM59" s="13"/>
-      <c r="AN59" s="13"/>
-      <c r="AO59" s="13"/>
-      <c r="AP59" s="13"/>
-      <c r="AQ59" s="13"/>
-      <c r="AR59" s="13"/>
-      <c r="AS59" s="13"/>
-      <c r="AT59" s="13"/>
-      <c r="AU59" s="13"/>
-      <c r="AV59" s="13"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="22"/>
+      <c r="AI59" s="22"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="22"/>
+      <c r="AL59" s="22"/>
+      <c r="AM59" s="22"/>
+      <c r="AN59" s="22"/>
+      <c r="AO59" s="22"/>
+      <c r="AP59" s="22"/>
+      <c r="AQ59" s="22"/>
+      <c r="AR59" s="22"/>
+      <c r="AS59" s="22"/>
+      <c r="AT59" s="22"/>
+      <c r="AU59" s="22"/>
+      <c r="AV59" s="22"/>
       <c r="BK59" s="8"/>
       <c r="BL59" s="8"/>
       <c r="BM59" s="7"/>
@@ -7202,40 +7202,40 @@
       <c r="BX59" s="7"/>
     </row>
     <row r="60" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="15" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="17" t="s">
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17"/>
-      <c r="AB60" s="17"/>
+      <c r="W60" s="26"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
       <c r="BK60" s="8"/>
       <c r="BL60" s="8"/>
       <c r="BM60" s="7"/>
@@ -7364,15 +7364,15 @@
       </c>
       <c r="C63">
         <f>$AK78/1000000</f>
-        <v>15.7748612803644</v>
+        <v>22.0267892676044</v>
       </c>
       <c r="D63">
         <f>$AK79/1000000</f>
-        <v>18.160832902933901</v>
+        <v>25.469993761509301</v>
       </c>
       <c r="E63">
         <f>$AK80/1000000</f>
-        <v>20.647252408292402</v>
+        <v>28.917188730918099</v>
       </c>
       <c r="H63" t="s">
         <v>0</v>
@@ -7382,15 +7382,15 @@
       </c>
       <c r="J63">
         <f>$AK83/1000000</f>
-        <v>15.7748612803644</v>
+        <v>22.0267892676044</v>
       </c>
       <c r="K63">
         <f>$AK84/1000000</f>
-        <v>18.160832902933901</v>
+        <v>25.469993761509301</v>
       </c>
       <c r="L63">
         <f>$AK85/1000000</f>
-        <v>20.647252408292402</v>
+        <v>28.917188730918099</v>
       </c>
       <c r="V63" t="s">
         <v>0</v>
@@ -7400,15 +7400,15 @@
       </c>
       <c r="X63">
         <f>J63</f>
-        <v>15.7748612803644</v>
+        <v>22.0267892676044</v>
       </c>
       <c r="Y63">
         <f t="shared" ref="Y63:Z74" si="10">K63</f>
-        <v>18.160832902933901</v>
+        <v>25.469993761509301</v>
       </c>
       <c r="Z63">
         <f t="shared" si="10"/>
-        <v>20.647252408292402</v>
+        <v>28.917188730918099</v>
       </c>
       <c r="BK63" s="8"/>
       <c r="BL63" s="8"/>
@@ -7434,15 +7434,15 @@
       </c>
       <c r="C64">
         <f>$AL78/1000000</f>
-        <v>15.8495027998057</v>
+        <v>22.054182806998902</v>
       </c>
       <c r="D64">
         <f>$AL79/1000000</f>
-        <v>18.185363321273499</v>
+        <v>25.415977529877598</v>
       </c>
       <c r="E64">
         <f>$AL80/1000000</f>
-        <v>20.708700269880801</v>
+        <v>28.893936718333798</v>
       </c>
       <c r="H64" t="s">
         <v>1</v>
@@ -7452,15 +7452,15 @@
       </c>
       <c r="J64">
         <f>$AL83/1000000</f>
-        <v>15.8598221987023</v>
+        <v>22.062118046998901</v>
       </c>
       <c r="K64">
         <f>$AL84/1000000</f>
-        <v>18.1993376652735</v>
+        <v>25.430626613748601</v>
       </c>
       <c r="L64">
         <f>$AL85/1000000</f>
-        <v>20.722674613880798</v>
+        <v>28.908585802204698</v>
       </c>
       <c r="V64" t="s">
         <v>1</v>
@@ -7470,15 +7470,15 @@
       </c>
       <c r="X64">
         <f t="shared" ref="X64:X74" si="11">J64</f>
-        <v>15.8598221987023</v>
+        <v>22.062118046998901</v>
       </c>
       <c r="Y64">
         <f t="shared" si="10"/>
-        <v>18.1993376652735</v>
+        <v>25.430626613748601</v>
       </c>
       <c r="Z64">
         <f t="shared" si="10"/>
-        <v>20.722674613880798</v>
+        <v>28.908585802204698</v>
       </c>
       <c r="BK64" s="8"/>
       <c r="BL64" s="8"/>
@@ -7504,15 +7504,15 @@
       </c>
       <c r="C65">
         <f>$AM78/1000000</f>
-        <v>15.851905332169101</v>
+        <v>22.065870850501899</v>
       </c>
       <c r="D65">
         <f>$AM79/1000000</f>
-        <v>18.145307425606703</v>
+        <v>25.364188973704699</v>
       </c>
       <c r="E65">
         <f>$AM80/1000000</f>
-        <v>20.682241511000001</v>
+        <v>28.857943794199301</v>
       </c>
       <c r="H65" t="s">
         <v>2</v>
@@ -7522,15 +7522,15 @@
       </c>
       <c r="J65">
         <f>$AM83/1000000</f>
-        <v>15.8716576687405</v>
+        <v>22.0802512311915</v>
       </c>
       <c r="K65">
         <f>$AM84/1000000</f>
-        <v>18.1717407898734</v>
+        <v>25.391581226607901</v>
       </c>
       <c r="L65">
         <f>$AM85/1000000</f>
-        <v>20.708674875266702</v>
+        <v>28.885336047102601</v>
       </c>
       <c r="V65" t="s">
         <v>2</v>
@@ -7540,15 +7540,15 @@
       </c>
       <c r="X65">
         <f t="shared" si="11"/>
-        <v>15.8716576687405</v>
+        <v>22.0802512311915</v>
       </c>
       <c r="Y65">
         <f t="shared" si="10"/>
-        <v>18.1717407898734</v>
+        <v>25.391581226607901</v>
       </c>
       <c r="Z65">
         <f t="shared" si="10"/>
-        <v>20.708674875266702</v>
+        <v>28.885336047102601</v>
       </c>
       <c r="BK65" s="8"/>
       <c r="BL65" s="8"/>
@@ -7574,15 +7574,15 @@
       </c>
       <c r="C66">
         <f>$AN78/1000000</f>
-        <v>15.8661037690594</v>
+        <v>22.102906654945702</v>
       </c>
       <c r="D66">
         <f>$AN79/1000000</f>
-        <v>18.083379519073201</v>
+        <v>25.2834828394233</v>
       </c>
       <c r="E66">
         <f>$AN80/1000000</f>
-        <v>20.647507878038599</v>
+        <v>28.808828923994898</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
@@ -7592,15 +7592,15 @@
       </c>
       <c r="J66">
         <f>$AN83/1000000</f>
-        <v>15.901653461366999</v>
+        <v>22.125044752723401</v>
       </c>
       <c r="K66">
         <f>$AN84/1000000</f>
-        <v>18.130184952673201</v>
+        <v>25.3306436858749</v>
       </c>
       <c r="L66">
         <f>$AN85/1000000</f>
-        <v>20.694313311638602</v>
+        <v>28.855989770446502</v>
       </c>
       <c r="V66" t="s">
         <v>3</v>
@@ -7610,15 +7610,15 @@
       </c>
       <c r="X66">
         <f t="shared" si="11"/>
-        <v>15.901653461366999</v>
+        <v>22.125044752723401</v>
       </c>
       <c r="Y66">
         <f t="shared" si="10"/>
-        <v>18.130184952673201</v>
+        <v>25.3306436858749</v>
       </c>
       <c r="Z66">
         <f t="shared" si="10"/>
-        <v>20.694313311638602</v>
+        <v>28.855989770446502</v>
       </c>
       <c r="BK66" s="8"/>
       <c r="BL66" s="8"/>
@@ -7644,15 +7644,15 @@
       </c>
       <c r="C67">
         <f>$AO78/1000000</f>
-        <v>15.7226416168625</v>
+        <v>21.9089741515082</v>
       </c>
       <c r="D67">
         <f>$AO79/1000000</f>
-        <v>17.900875788298901</v>
+        <v>24.991596348136802</v>
       </c>
       <c r="E67">
         <f>$AO80/1000000</f>
-        <v>20.460046817175801</v>
+        <v>28.5052525548383</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -7662,15 +7662,15 @@
       </c>
       <c r="J67">
         <f>$AO83/1000000</f>
-        <v>15.7929309028625</v>
+        <v>21.9723253035082</v>
       </c>
       <c r="K67">
         <f>$AO84/1000000</f>
-        <v>17.980095042698903</v>
+        <v>25.082779225556102</v>
       </c>
       <c r="L67">
         <f>$AO85/1000000</f>
-        <v>20.539266071575803</v>
+        <v>28.596435432257699</v>
       </c>
       <c r="V67" t="s">
         <v>4</v>
@@ -7680,15 +7680,15 @@
       </c>
       <c r="X67">
         <f t="shared" si="11"/>
-        <v>15.7929309028625</v>
+        <v>21.9723253035082</v>
       </c>
       <c r="Y67">
         <f t="shared" si="10"/>
-        <v>17.980095042698903</v>
+        <v>25.082779225556102</v>
       </c>
       <c r="Z67">
         <f t="shared" si="10"/>
-        <v>20.539266071575803</v>
+        <v>28.596435432257699</v>
       </c>
     </row>
     <row r="68" spans="1:76" x14ac:dyDescent="0.25">
@@ -7700,15 +7700,15 @@
       </c>
       <c r="C68">
         <f>$AP78/1000000</f>
-        <v>15.5869545651737</v>
+        <v>21.7272470847251</v>
       </c>
       <c r="D68">
         <f>$AP79/1000000</f>
-        <v>17.747981102857899</v>
+        <v>24.739193356205099</v>
       </c>
       <c r="E68">
         <f>$AP80/1000000</f>
-        <v>20.302194801646301</v>
+        <v>28.2411596850366</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -7718,15 +7718,15 @@
       </c>
       <c r="J68">
         <f>$AP83/1000000</f>
-        <v>15.690110418884501</v>
+        <v>21.8272251647251</v>
       </c>
       <c r="K68">
         <f>$AP84/1000000</f>
-        <v>17.852211916724499</v>
+        <v>24.864527389753498</v>
       </c>
       <c r="L68">
         <f>$AP85/1000000</f>
-        <v>20.406425615512902</v>
+        <v>28.366493718584998</v>
       </c>
       <c r="V68" t="s">
         <v>5</v>
@@ -7736,15 +7736,15 @@
       </c>
       <c r="X68">
         <f t="shared" si="11"/>
-        <v>15.690110418884501</v>
+        <v>21.8272251647251</v>
       </c>
       <c r="Y68">
         <f t="shared" si="10"/>
-        <v>17.852211916724499</v>
+        <v>24.864527389753498</v>
       </c>
       <c r="Z68">
         <f t="shared" si="10"/>
-        <v>20.406425615512902</v>
+        <v>28.366493718584998</v>
       </c>
     </row>
     <row r="69" spans="1:76" x14ac:dyDescent="0.25">
@@ -7756,15 +7756,15 @@
       </c>
       <c r="C69">
         <f>$AQ78/1000000</f>
-        <v>15.5225401601475</v>
+        <v>21.4886179530451</v>
       </c>
       <c r="D69">
         <f>$AQ79/1000000</f>
-        <v>17.678729536200699</v>
+        <v>24.4676844885253</v>
       </c>
       <c r="E69">
         <f>$AQ80/1000000</f>
-        <v>20.244036095187898</v>
+        <v>27.982587152528101</v>
       </c>
       <c r="H69" t="s">
         <v>6</v>
@@ -7774,15 +7774,15 @@
       </c>
       <c r="J69">
         <f>$AQ83/1000000</f>
-        <v>15.6449384137475</v>
+        <v>21.626934833045098</v>
       </c>
       <c r="K69">
         <f>$AQ84/1000000</f>
-        <v>17.801127789800699</v>
+        <v>24.6208939646543</v>
       </c>
       <c r="L69">
         <f>$AQ85/1000000</f>
-        <v>20.366434348787902</v>
+        <v>28.1357966286572</v>
       </c>
       <c r="V69" t="s">
         <v>6</v>
@@ -7792,15 +7792,15 @@
       </c>
       <c r="X69">
         <f t="shared" si="11"/>
-        <v>15.6449384137475</v>
+        <v>21.626934833045098</v>
       </c>
       <c r="Y69">
         <f t="shared" si="10"/>
-        <v>17.801127789800699</v>
+        <v>24.6208939646543</v>
       </c>
       <c r="Z69">
         <f t="shared" si="10"/>
-        <v>20.366434348787902</v>
+        <v>28.1357966286572</v>
       </c>
     </row>
     <row r="70" spans="1:76" x14ac:dyDescent="0.25">
@@ -7812,15 +7812,15 @@
       </c>
       <c r="C70">
         <f>$AR78/1000000</f>
-        <v>15.4884174358324</v>
+        <v>21.249825120628799</v>
       </c>
       <c r="D70">
         <f>$AR79/1000000</f>
-        <v>17.6397696502546</v>
+        <v>24.2123330746089</v>
       </c>
       <c r="E70">
         <f>$AR80/1000000</f>
-        <v>20.2161690694406</v>
+        <v>27.740172073783199</v>
       </c>
       <c r="H70" t="s">
         <v>7</v>
@@ -7830,15 +7830,15 @@
       </c>
       <c r="J70">
         <f>$AR83/1000000</f>
-        <v>15.6268016811658</v>
+        <v>21.4266445013651</v>
       </c>
       <c r="K70">
         <f>$AR84/1000000</f>
-        <v>17.778153895587899</v>
+        <v>24.3903884707379</v>
       </c>
       <c r="L70">
         <f>$AR85/1000000</f>
-        <v>20.354553314773899</v>
+        <v>27.9182274699122</v>
       </c>
       <c r="V70" t="s">
         <v>7</v>
@@ -7848,15 +7848,15 @@
       </c>
       <c r="X70">
         <f t="shared" si="11"/>
-        <v>15.6268016811658</v>
+        <v>21.4266445013651</v>
       </c>
       <c r="Y70">
         <f t="shared" si="10"/>
-        <v>17.778153895587899</v>
+        <v>24.3903884707379</v>
       </c>
       <c r="Z70">
         <f t="shared" si="10"/>
-        <v>20.354553314773899</v>
+        <v>27.9182274699122</v>
       </c>
     </row>
     <row r="71" spans="1:76" x14ac:dyDescent="0.25">
@@ -7868,15 +7868,15 @@
       </c>
       <c r="C71">
         <f>$AS78/1000000</f>
-        <v>15.3178038142571</v>
+        <v>20.898126743727698</v>
       </c>
       <c r="D71">
         <f>$AS79/1000000</f>
-        <v>17.444970220524198</v>
+        <v>23.812291717715098</v>
       </c>
       <c r="E71">
         <f>$AS80/1000000</f>
-        <v>20.076833940704201</v>
+        <v>27.4048123927464</v>
       </c>
       <c r="H71" t="s">
         <v>8</v>
@@ -7886,15 +7886,15 @@
       </c>
       <c r="J71">
         <f>$AS83/1000000</f>
-        <v>15.503396298257099</v>
+        <v>21.1549689011471</v>
       </c>
       <c r="K71">
         <f>$AS84/1000000</f>
-        <v>17.630562704524202</v>
+        <v>24.069133875134501</v>
       </c>
       <c r="L71">
         <f>$AS85/1000000</f>
-        <v>20.262426424704202</v>
+        <v>27.6616545501657</v>
       </c>
       <c r="V71" t="s">
         <v>8</v>
@@ -7904,15 +7904,15 @@
       </c>
       <c r="X71">
         <f t="shared" si="11"/>
-        <v>15.503396298257099</v>
+        <v>21.1549689011471</v>
       </c>
       <c r="Y71">
         <f t="shared" si="10"/>
-        <v>17.630562704524202</v>
+        <v>24.069133875134501</v>
       </c>
       <c r="Z71">
         <f t="shared" si="10"/>
-        <v>20.262426424704202</v>
+        <v>27.6616545501657</v>
       </c>
     </row>
     <row r="72" spans="1:76" x14ac:dyDescent="0.25">
@@ -7924,15 +7924,15 @@
       </c>
       <c r="C72">
         <f>$AT78/1000000</f>
-        <v>15.1471901926817</v>
+        <v>20.562105187471801</v>
       </c>
       <c r="D72">
         <f>$AT79/1000000</f>
-        <v>17.250170790793899</v>
+        <v>23.4279271814666</v>
       </c>
       <c r="E72">
         <f>$AT80/1000000</f>
-        <v>19.937498811967803</v>
+        <v>27.085129532354799</v>
       </c>
       <c r="H72" t="s">
         <v>9</v>
@@ -7942,15 +7942,15 @@
       </c>
       <c r="J72">
         <f>$AT83/1000000</f>
-        <v>15.3254547153484</v>
+        <v>20.821996041665301</v>
       </c>
       <c r="K72">
         <f>$AT84/1000000</f>
-        <v>17.4284353134606</v>
+        <v>23.687818035660101</v>
       </c>
       <c r="L72">
         <f>$AT85/1000000</f>
-        <v>20.115763334634501</v>
+        <v>27.345020386548299</v>
       </c>
       <c r="V72" t="s">
         <v>9</v>
@@ -7960,15 +7960,15 @@
       </c>
       <c r="X72">
         <f t="shared" si="11"/>
-        <v>15.3254547153484</v>
+        <v>20.821996041665301</v>
       </c>
       <c r="Y72">
         <f t="shared" si="10"/>
-        <v>17.4284353134606</v>
+        <v>23.687818035660101</v>
       </c>
       <c r="Z72">
         <f t="shared" si="10"/>
-        <v>20.115763334634501</v>
+        <v>27.345020386548299</v>
       </c>
     </row>
     <row r="73" spans="1:76" x14ac:dyDescent="0.25">
@@ -7980,15 +7980,15 @@
       </c>
       <c r="C73">
         <f>$AU78/1000000</f>
-        <v>14.9765765711063</v>
+        <v>20.226083631215801</v>
       </c>
       <c r="D73">
         <f>$AU79/1000000</f>
-        <v>17.0553713610635</v>
+        <v>23.043562645218</v>
       </c>
       <c r="E73">
         <f>$AU80/1000000</f>
-        <v>19.7981636832315</v>
+        <v>26.7654466719632</v>
       </c>
       <c r="H73" t="s">
         <v>10</v>
@@ -7998,15 +7998,15 @@
       </c>
       <c r="J73">
         <f>$AU83/1000000</f>
-        <v>15.092976932439599</v>
+        <v>20.413285117667499</v>
       </c>
       <c r="K73">
         <f>$AU84/1000000</f>
-        <v>17.171771722396898</v>
+        <v>23.230764131669599</v>
       </c>
       <c r="L73">
         <f>$AU85/1000000</f>
-        <v>19.914564044564798</v>
+        <v>26.952648158414799</v>
       </c>
       <c r="V73" t="s">
         <v>10</v>
@@ -8016,15 +8016,15 @@
       </c>
       <c r="X73">
         <f t="shared" si="11"/>
-        <v>15.092976932439599</v>
+        <v>20.413285117667499</v>
       </c>
       <c r="Y73">
         <f t="shared" si="10"/>
-        <v>17.171771722396898</v>
+        <v>23.230764131669599</v>
       </c>
       <c r="Z73">
         <f t="shared" si="10"/>
-        <v>19.914564044564798</v>
+        <v>26.952648158414799</v>
       </c>
     </row>
     <row r="74" spans="1:76" x14ac:dyDescent="0.25">
@@ -8036,15 +8036,15 @@
       </c>
       <c r="C74">
         <f>$AV78/1000000</f>
-        <v>14.805962949530899</v>
+        <v>19.822857763708701</v>
       </c>
       <c r="D74">
         <f>$AV79/1000000</f>
-        <v>16.860571931333197</v>
+        <v>22.582325201719701</v>
       </c>
       <c r="E74">
         <f>$AV80/1000000</f>
-        <v>19.658828554495098</v>
+        <v>26.381827239493298</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -8054,15 +8054,15 @@
       </c>
       <c r="J74">
         <f>$AV83/1000000</f>
-        <v>14.805962949530899</v>
+        <v>19.822857763708701</v>
       </c>
       <c r="K74">
         <f>$AV84/1000000</f>
-        <v>16.860571931333197</v>
+        <v>22.582325201719701</v>
       </c>
       <c r="L74">
         <f>$AV85/1000000</f>
-        <v>19.658828554495098</v>
+        <v>26.381827239493298</v>
       </c>
       <c r="V74" t="s">
         <v>11</v>
@@ -8072,52 +8072,52 @@
       </c>
       <c r="X74">
         <f t="shared" si="11"/>
-        <v>14.805962949530899</v>
+        <v>19.822857763708701</v>
       </c>
       <c r="Y74">
         <f t="shared" si="10"/>
-        <v>16.860571931333197</v>
+        <v>22.582325201719701</v>
       </c>
       <c r="Z74">
         <f t="shared" si="10"/>
-        <v>19.658828554495098</v>
+        <v>26.381827239493298</v>
       </c>
     </row>
     <row r="75" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="BF75" s="19" t="s">
+      <c r="BF75" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="BG75" s="19"/>
-      <c r="BH75" s="19"/>
-      <c r="BI75" s="19"/>
-      <c r="BJ75" s="19"/>
-      <c r="BK75" s="19"/>
-      <c r="BL75" s="19"/>
-      <c r="BM75" s="19"/>
-      <c r="BN75" s="19"/>
-      <c r="BO75" s="19"/>
-      <c r="BP75" s="19"/>
-      <c r="BQ75" s="19"/>
-      <c r="BR75" s="19"/>
-      <c r="BS75" s="19"/>
+      <c r="BG75" s="11"/>
+      <c r="BH75" s="11"/>
+      <c r="BI75" s="11"/>
+      <c r="BJ75" s="11"/>
+      <c r="BK75" s="11"/>
+      <c r="BL75" s="11"/>
+      <c r="BM75" s="11"/>
+      <c r="BN75" s="11"/>
+      <c r="BO75" s="11"/>
+      <c r="BP75" s="11"/>
+      <c r="BQ75" s="11"/>
+      <c r="BR75" s="11"/>
+      <c r="BS75" s="11"/>
     </row>
     <row r="76" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AI76" s="10" t="s">
+      <c r="AI76" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AJ76" s="10"/>
-      <c r="AK76" s="10"/>
-      <c r="AL76" s="10"/>
-      <c r="AM76" s="10"/>
-      <c r="AN76" s="10"/>
-      <c r="AO76" s="10"/>
-      <c r="AP76" s="10"/>
-      <c r="AQ76" s="10"/>
-      <c r="AR76" s="10"/>
-      <c r="AS76" s="10"/>
-      <c r="AT76" s="10"/>
-      <c r="AU76" s="10"/>
-      <c r="AV76" s="10"/>
+      <c r="AJ76" s="19"/>
+      <c r="AK76" s="19"/>
+      <c r="AL76" s="19"/>
+      <c r="AM76" s="19"/>
+      <c r="AN76" s="19"/>
+      <c r="AO76" s="19"/>
+      <c r="AP76" s="19"/>
+      <c r="AQ76" s="19"/>
+      <c r="AR76" s="19"/>
+      <c r="AS76" s="19"/>
+      <c r="AT76" s="19"/>
+      <c r="AU76" s="19"/>
+      <c r="AV76" s="19"/>
       <c r="BF76" s="9"/>
       <c r="BG76" s="9"/>
       <c r="BH76" s="9" t="s">
@@ -8201,40 +8201,40 @@
         <v>13</v>
       </c>
       <c r="BH77" s="9">
-        <v>15774861.2803644</v>
+        <v>22026789.267604399</v>
       </c>
       <c r="BI77" s="9">
-        <v>15849502.799805701</v>
+        <v>22054182.806998901</v>
       </c>
       <c r="BJ77" s="9">
-        <v>15851905.332169101</v>
+        <v>22065870.850501899</v>
       </c>
       <c r="BK77" s="9">
-        <v>15866103.769059399</v>
+        <v>22102906.654945701</v>
       </c>
       <c r="BL77" s="9">
-        <v>15722641.6168625</v>
+        <v>21908974.151508201</v>
       </c>
       <c r="BM77" s="9">
-        <v>15586954.5651737</v>
+        <v>21727247.084725101</v>
       </c>
       <c r="BN77" s="9">
-        <v>15522540.160147499</v>
+        <v>21488617.9530451</v>
       </c>
       <c r="BO77" s="9">
-        <v>15488417.4358324</v>
+        <v>21249825.1206288</v>
       </c>
       <c r="BP77" s="9">
-        <v>15317803.8142571</v>
+        <v>20898126.743727699</v>
       </c>
       <c r="BQ77" s="9">
-        <v>15147190.1926817</v>
+        <v>20562105.1874718</v>
       </c>
       <c r="BR77" s="9">
-        <v>14976576.5711063</v>
+        <v>20226083.6312158</v>
       </c>
       <c r="BS77" s="9">
-        <v>14805962.9495309</v>
+        <v>19822857.763708699</v>
       </c>
     </row>
     <row r="78" spans="1:76" x14ac:dyDescent="0.25">
@@ -8246,51 +8246,51 @@
       </c>
       <c r="AK78">
         <f>BH77</f>
-        <v>15774861.2803644</v>
+        <v>22026789.267604399</v>
       </c>
       <c r="AL78">
         <f t="shared" ref="AL78:AV80" si="12">BI77</f>
-        <v>15849502.799805701</v>
+        <v>22054182.806998901</v>
       </c>
       <c r="AM78">
         <f t="shared" si="12"/>
-        <v>15851905.332169101</v>
+        <v>22065870.850501899</v>
       </c>
       <c r="AN78">
         <f t="shared" si="12"/>
-        <v>15866103.769059399</v>
+        <v>22102906.654945701</v>
       </c>
       <c r="AO78">
         <f t="shared" si="12"/>
-        <v>15722641.6168625</v>
+        <v>21908974.151508201</v>
       </c>
       <c r="AP78">
         <f t="shared" si="12"/>
-        <v>15586954.5651737</v>
+        <v>21727247.084725101</v>
       </c>
       <c r="AQ78">
         <f t="shared" si="12"/>
-        <v>15522540.160147499</v>
+        <v>21488617.9530451</v>
       </c>
       <c r="AR78">
         <f t="shared" si="12"/>
-        <v>15488417.4358324</v>
+        <v>21249825.1206288</v>
       </c>
       <c r="AS78">
         <f t="shared" si="12"/>
-        <v>15317803.8142571</v>
+        <v>20898126.743727699</v>
       </c>
       <c r="AT78">
         <f t="shared" si="12"/>
-        <v>15147190.1926817</v>
+        <v>20562105.1874718</v>
       </c>
       <c r="AU78">
         <f t="shared" si="12"/>
-        <v>14976576.5711063</v>
+        <v>20226083.6312158</v>
       </c>
       <c r="AV78">
         <f t="shared" si="12"/>
-        <v>14805962.9495309</v>
+        <v>19822857.763708699</v>
       </c>
       <c r="BF78" s="9" t="s">
         <v>12</v>
@@ -8299,40 +8299,40 @@
         <v>14</v>
       </c>
       <c r="BH78" s="9">
-        <v>18160832.902933899</v>
+        <v>25469993.761509299</v>
       </c>
       <c r="BI78" s="9">
-        <v>18185363.321273498</v>
+        <v>25415977.529877599</v>
       </c>
       <c r="BJ78" s="9">
-        <v>18145307.425606702</v>
+        <v>25364188.973704699</v>
       </c>
       <c r="BK78" s="9">
-        <v>18083379.519073199</v>
+        <v>25283482.839423299</v>
       </c>
       <c r="BL78" s="9">
-        <v>17900875.788298901</v>
+        <v>24991596.348136801</v>
       </c>
       <c r="BM78" s="9">
-        <v>17747981.102857899</v>
+        <v>24739193.356205098</v>
       </c>
       <c r="BN78" s="9">
-        <v>17678729.536200698</v>
+        <v>24467684.488525301</v>
       </c>
       <c r="BO78" s="9">
-        <v>17639769.6502546</v>
+        <v>24212333.0746089</v>
       </c>
       <c r="BP78" s="9">
-        <v>17444970.220524199</v>
+        <v>23812291.717715099</v>
       </c>
       <c r="BQ78" s="9">
-        <v>17250170.790793899</v>
+        <v>23427927.181466602</v>
       </c>
       <c r="BR78" s="9">
-        <v>17055371.361063499</v>
+        <v>23043562.645218</v>
       </c>
       <c r="BS78" s="9">
-        <v>16860571.931333199</v>
+        <v>22582325.201719701</v>
       </c>
     </row>
     <row r="79" spans="1:76" x14ac:dyDescent="0.25">
@@ -8344,51 +8344,51 @@
       </c>
       <c r="AK79">
         <f t="shared" ref="AK79:AK80" si="13">BH78</f>
-        <v>18160832.902933899</v>
+        <v>25469993.761509299</v>
       </c>
       <c r="AL79">
         <f t="shared" si="12"/>
-        <v>18185363.321273498</v>
+        <v>25415977.529877599</v>
       </c>
       <c r="AM79">
         <f t="shared" si="12"/>
-        <v>18145307.425606702</v>
+        <v>25364188.973704699</v>
       </c>
       <c r="AN79">
         <f t="shared" si="12"/>
-        <v>18083379.519073199</v>
+        <v>25283482.839423299</v>
       </c>
       <c r="AO79">
         <f t="shared" si="12"/>
-        <v>17900875.788298901</v>
+        <v>24991596.348136801</v>
       </c>
       <c r="AP79">
         <f t="shared" si="12"/>
-        <v>17747981.102857899</v>
+        <v>24739193.356205098</v>
       </c>
       <c r="AQ79">
         <f t="shared" si="12"/>
-        <v>17678729.536200698</v>
+        <v>24467684.488525301</v>
       </c>
       <c r="AR79">
         <f t="shared" si="12"/>
-        <v>17639769.6502546</v>
+        <v>24212333.0746089</v>
       </c>
       <c r="AS79">
         <f t="shared" si="12"/>
-        <v>17444970.220524199</v>
+        <v>23812291.717715099</v>
       </c>
       <c r="AT79">
         <f t="shared" si="12"/>
-        <v>17250170.790793899</v>
+        <v>23427927.181466602</v>
       </c>
       <c r="AU79">
         <f t="shared" si="12"/>
-        <v>17055371.361063499</v>
+        <v>23043562.645218</v>
       </c>
       <c r="AV79">
         <f t="shared" si="12"/>
-        <v>16860571.931333199</v>
+        <v>22582325.201719701</v>
       </c>
       <c r="BF79" s="9" t="s">
         <v>12</v>
@@ -8397,40 +8397,40 @@
         <v>15</v>
       </c>
       <c r="BH79" s="9">
-        <v>20647252.408292402</v>
+        <v>28917188.730918098</v>
       </c>
       <c r="BI79" s="9">
-        <v>20708700.269880801</v>
+        <v>28893936.718333799</v>
       </c>
       <c r="BJ79" s="9">
-        <v>20682241.511</v>
+        <v>28857943.794199299</v>
       </c>
       <c r="BK79" s="9">
-        <v>20647507.8780386</v>
+        <v>28808828.923994899</v>
       </c>
       <c r="BL79" s="9">
-        <v>20460046.817175802</v>
+        <v>28505252.5548383</v>
       </c>
       <c r="BM79" s="9">
-        <v>20302194.8016463</v>
+        <v>28241159.6850366</v>
       </c>
       <c r="BN79" s="9">
-        <v>20244036.095187899</v>
+        <v>27982587.1525281</v>
       </c>
       <c r="BO79" s="9">
-        <v>20216169.0694406</v>
+        <v>27740172.0737832</v>
       </c>
       <c r="BP79" s="9">
-        <v>20076833.9407042</v>
+        <v>27404812.3927464</v>
       </c>
       <c r="BQ79" s="9">
-        <v>19937498.811967801</v>
+        <v>27085129.532354798</v>
       </c>
       <c r="BR79" s="9">
-        <v>19798163.683231499</v>
+        <v>26765446.6719632</v>
       </c>
       <c r="BS79" s="9">
-        <v>19658828.5544951</v>
+        <v>26381827.239493299</v>
       </c>
     </row>
     <row r="80" spans="1:76" x14ac:dyDescent="0.25">
@@ -8442,51 +8442,51 @@
       </c>
       <c r="AK80">
         <f t="shared" si="13"/>
-        <v>20647252.408292402</v>
+        <v>28917188.730918098</v>
       </c>
       <c r="AL80">
         <f t="shared" si="12"/>
-        <v>20708700.269880801</v>
+        <v>28893936.718333799</v>
       </c>
       <c r="AM80">
         <f t="shared" si="12"/>
-        <v>20682241.511</v>
+        <v>28857943.794199299</v>
       </c>
       <c r="AN80">
         <f t="shared" si="12"/>
-        <v>20647507.8780386</v>
+        <v>28808828.923994899</v>
       </c>
       <c r="AO80">
         <f t="shared" si="12"/>
-        <v>20460046.817175802</v>
+        <v>28505252.5548383</v>
       </c>
       <c r="AP80">
         <f t="shared" si="12"/>
-        <v>20302194.8016463</v>
+        <v>28241159.6850366</v>
       </c>
       <c r="AQ80">
         <f t="shared" si="12"/>
-        <v>20244036.095187899</v>
+        <v>27982587.1525281</v>
       </c>
       <c r="AR80">
         <f t="shared" si="12"/>
-        <v>20216169.0694406</v>
+        <v>27740172.0737832</v>
       </c>
       <c r="AS80">
         <f t="shared" si="12"/>
-        <v>20076833.9407042</v>
+        <v>27404812.3927464</v>
       </c>
       <c r="AT80">
         <f t="shared" si="12"/>
-        <v>19937498.811967801</v>
+        <v>27085129.532354798</v>
       </c>
       <c r="AU80">
         <f t="shared" si="12"/>
-        <v>19798163.683231499</v>
+        <v>26765446.6719632</v>
       </c>
       <c r="AV80">
         <f t="shared" si="12"/>
-        <v>19658828.5544951</v>
+        <v>26381827.239493299</v>
       </c>
       <c r="BF80" s="9" t="s">
         <v>16</v>
@@ -8495,40 +8495,40 @@
         <v>13</v>
       </c>
       <c r="BH80" s="9">
-        <v>15774861.2803644</v>
+        <v>22026789.267604399</v>
       </c>
       <c r="BI80" s="9">
-        <v>15854662.499253999</v>
+        <v>22058150.426998898</v>
       </c>
       <c r="BJ80" s="9">
-        <v>15861781.5004548</v>
+        <v>22073061.040846702</v>
       </c>
       <c r="BK80" s="9">
-        <v>15883878.6152132</v>
+        <v>22113975.703834601</v>
       </c>
       <c r="BL80" s="9">
-        <v>15757786.259862499</v>
+        <v>21940649.727508198</v>
       </c>
       <c r="BM80" s="9">
-        <v>15639027.682884499</v>
+        <v>21777236.1247251</v>
       </c>
       <c r="BN80" s="9">
-        <v>15583739.2869475</v>
+        <v>21557776.393045101</v>
       </c>
       <c r="BO80" s="9">
-        <v>15557609.5584991</v>
+        <v>21338316.661365099</v>
       </c>
       <c r="BP80" s="9">
-        <v>15410600.056257101</v>
+        <v>21026547.822437402</v>
       </c>
       <c r="BQ80" s="9">
-        <v>15236322.454015</v>
+        <v>20692050.614568599</v>
       </c>
       <c r="BR80" s="9">
-        <v>15034776.751773</v>
+        <v>20319684.374441601</v>
       </c>
       <c r="BS80" s="9">
-        <v>14805962.9495309</v>
+        <v>19822857.763708699</v>
       </c>
     </row>
     <row r="81" spans="35:71" x14ac:dyDescent="0.25">
@@ -8539,40 +8539,40 @@
         <v>14</v>
       </c>
       <c r="BH81" s="9">
-        <v>18160832.902933899</v>
+        <v>25469993.761509299</v>
       </c>
       <c r="BI81" s="9">
-        <v>18192350.4932735</v>
+        <v>25423302.071813099</v>
       </c>
       <c r="BJ81" s="9">
-        <v>18158524.1077401</v>
+        <v>25377885.1001563</v>
       </c>
       <c r="BK81" s="9">
-        <v>18106782.2358732</v>
+        <v>25307063.2626491</v>
       </c>
       <c r="BL81" s="9">
-        <v>17940485.415498901</v>
+        <v>25037187.786846399</v>
       </c>
       <c r="BM81" s="9">
-        <v>17800096.509791199</v>
+        <v>24801860.372979298</v>
       </c>
       <c r="BN81" s="9">
-        <v>17739928.663000699</v>
+        <v>24544289.226589799</v>
       </c>
       <c r="BO81" s="9">
-        <v>17708961.772921301</v>
+        <v>24301360.772673398</v>
       </c>
       <c r="BP81" s="9">
-        <v>17537766.462524202</v>
+        <v>23940712.796424799</v>
       </c>
       <c r="BQ81" s="9">
-        <v>17339303.052127201</v>
+        <v>23557872.608563401</v>
       </c>
       <c r="BR81" s="9">
-        <v>17113571.541730199</v>
+        <v>23137163.388443802</v>
       </c>
       <c r="BS81" s="9">
-        <v>16860571.931333199</v>
+        <v>22582325.201719701</v>
       </c>
     </row>
     <row r="82" spans="35:71" x14ac:dyDescent="0.25">
@@ -8583,40 +8583,40 @@
         <v>15</v>
       </c>
       <c r="BH82" s="9">
-        <v>20647252.408292402</v>
+        <v>28917188.730918098</v>
       </c>
       <c r="BI82" s="9">
-        <v>20715687.4418808</v>
+        <v>28901261.260269299</v>
       </c>
       <c r="BJ82" s="9">
-        <v>20695458.193133399</v>
+        <v>28871639.920650899</v>
       </c>
       <c r="BK82" s="9">
-        <v>20670910.594838601</v>
+        <v>28832409.3472207</v>
       </c>
       <c r="BL82" s="9">
-        <v>20499656.444375802</v>
+        <v>28550843.993547998</v>
       </c>
       <c r="BM82" s="9">
-        <v>20354310.2085796</v>
+        <v>28303826.7018108</v>
       </c>
       <c r="BN82" s="9">
-        <v>20305235.221987899</v>
+        <v>28059191.890592702</v>
       </c>
       <c r="BO82" s="9">
-        <v>20285361.192107301</v>
+        <v>27829199.771847699</v>
       </c>
       <c r="BP82" s="9">
-        <v>20169630.182704199</v>
+        <v>27533233.471456099</v>
       </c>
       <c r="BQ82" s="9">
-        <v>20026631.0733012</v>
+        <v>27215074.959451601</v>
       </c>
       <c r="BR82" s="9">
-        <v>19856363.863898098</v>
+        <v>26859047.415189002</v>
       </c>
       <c r="BS82" s="9">
-        <v>19658828.5544951</v>
+        <v>26381827.239493299</v>
       </c>
     </row>
     <row r="83" spans="35:71" x14ac:dyDescent="0.25">
@@ -8628,51 +8628,51 @@
       </c>
       <c r="AK83">
         <f>BH86</f>
-        <v>15774861.2803644</v>
+        <v>22026789.267604399</v>
       </c>
       <c r="AL83">
         <f t="shared" ref="AL83:AV85" si="14">BI86</f>
-        <v>15859822.1987023</v>
+        <v>22062118.046998899</v>
       </c>
       <c r="AM83">
         <f t="shared" si="14"/>
-        <v>15871657.6687405</v>
+        <v>22080251.231191501</v>
       </c>
       <c r="AN83">
         <f t="shared" si="14"/>
-        <v>15901653.461367</v>
+        <v>22125044.7527234</v>
       </c>
       <c r="AO83">
         <f t="shared" si="14"/>
-        <v>15792930.9028625</v>
+        <v>21972325.3035082</v>
       </c>
       <c r="AP83">
         <f t="shared" si="14"/>
-        <v>15690110.418884501</v>
+        <v>21827225.164725099</v>
       </c>
       <c r="AQ83">
         <f t="shared" si="14"/>
-        <v>15644938.413747501</v>
+        <v>21626934.833045099</v>
       </c>
       <c r="AR83">
         <f t="shared" si="14"/>
-        <v>15626801.681165799</v>
+        <v>21426644.501365099</v>
       </c>
       <c r="AS83">
         <f t="shared" si="14"/>
-        <v>15503396.298257099</v>
+        <v>21154968.901147101</v>
       </c>
       <c r="AT83">
         <f t="shared" si="14"/>
-        <v>15325454.7153484</v>
+        <v>20821996.041665301</v>
       </c>
       <c r="AU83">
         <f t="shared" si="14"/>
-        <v>15092976.932439599</v>
+        <v>20413285.1176675</v>
       </c>
       <c r="AV83">
         <f t="shared" si="14"/>
-        <v>14805962.9495309</v>
+        <v>19822857.763708699</v>
       </c>
       <c r="BF83" s="9" t="s">
         <v>17</v>
@@ -8681,40 +8681,40 @@
         <v>13</v>
       </c>
       <c r="BH83" s="9">
-        <v>15774861.2803644</v>
+        <v>22026789.267604399</v>
       </c>
       <c r="BI83" s="9">
-        <v>15857242.348978201</v>
+        <v>22060134.236998901</v>
       </c>
       <c r="BJ83" s="9">
-        <v>15866719.584597699</v>
+        <v>22076656.1360191</v>
       </c>
       <c r="BK83" s="9">
-        <v>15892766.0382901</v>
+        <v>22119510.228278998</v>
       </c>
       <c r="BL83" s="9">
-        <v>15775358.581362501</v>
+        <v>21956487.515508201</v>
       </c>
       <c r="BM83" s="9">
-        <v>15664569.0508845</v>
+        <v>21802230.644725099</v>
       </c>
       <c r="BN83" s="9">
-        <v>15614338.8503475</v>
+        <v>21592355.6130451</v>
       </c>
       <c r="BO83" s="9">
-        <v>15592205.6198324</v>
+        <v>21382480.581365101</v>
       </c>
       <c r="BP83" s="9">
-        <v>15456998.1772571</v>
+        <v>21090758.361792199</v>
       </c>
       <c r="BQ83" s="9">
-        <v>15280888.584681701</v>
+        <v>20757023.328116901</v>
       </c>
       <c r="BR83" s="9">
-        <v>15063876.842106299</v>
+        <v>20366484.7460545</v>
       </c>
       <c r="BS83" s="9">
-        <v>14805962.9495309</v>
+        <v>19822857.763708699</v>
       </c>
     </row>
     <row r="84" spans="35:71" x14ac:dyDescent="0.25">
@@ -8726,51 +8726,51 @@
       </c>
       <c r="AK84">
         <f t="shared" ref="AK84:AK85" si="15">BH87</f>
-        <v>18160832.902933899</v>
+        <v>25469993.761509299</v>
       </c>
       <c r="AL84">
         <f t="shared" si="14"/>
-        <v>18199337.665273499</v>
+        <v>25430626.613748599</v>
       </c>
       <c r="AM84">
         <f t="shared" si="14"/>
-        <v>18171740.789873399</v>
+        <v>25391581.2266079</v>
       </c>
       <c r="AN84">
         <f t="shared" si="14"/>
-        <v>18130184.952673201</v>
+        <v>25330643.685874902</v>
       </c>
       <c r="AO84">
         <f t="shared" si="14"/>
-        <v>17980095.042698901</v>
+        <v>25082779.225556102</v>
       </c>
       <c r="AP84">
         <f t="shared" si="14"/>
-        <v>17852211.916724499</v>
+        <v>24864527.389753498</v>
       </c>
       <c r="AQ84">
         <f t="shared" si="14"/>
-        <v>17801127.7898007</v>
+        <v>24620893.9646543</v>
       </c>
       <c r="AR84">
         <f t="shared" si="14"/>
-        <v>17778153.895587899</v>
+        <v>24390388.470737901</v>
       </c>
       <c r="AS84">
         <f t="shared" si="14"/>
-        <v>17630562.7045242</v>
+        <v>24069133.875134502</v>
       </c>
       <c r="AT84">
         <f t="shared" si="14"/>
-        <v>17428435.3134606</v>
+        <v>23687818.035660099</v>
       </c>
       <c r="AU84">
         <f t="shared" si="14"/>
-        <v>17171771.722396899</v>
+        <v>23230764.1316696</v>
       </c>
       <c r="AV84">
         <f t="shared" si="14"/>
-        <v>16860571.931333199</v>
+        <v>22582325.201719701</v>
       </c>
       <c r="BF84" s="9" t="s">
         <v>17</v>
@@ -8779,40 +8779,40 @@
         <v>14</v>
       </c>
       <c r="BH84" s="9">
-        <v>18160832.902933899</v>
+        <v>25469993.761509299</v>
       </c>
       <c r="BI84" s="9">
-        <v>18195844.0792735</v>
+        <v>25426964.342780899</v>
       </c>
       <c r="BJ84" s="9">
-        <v>18165132.448806699</v>
+        <v>25384733.163382102</v>
       </c>
       <c r="BK84" s="9">
-        <v>18118483.594273198</v>
+        <v>25318853.474261999</v>
       </c>
       <c r="BL84" s="9">
-        <v>17960290.229098901</v>
+        <v>25059983.506201301</v>
       </c>
       <c r="BM84" s="9">
-        <v>17826154.213257901</v>
+        <v>24833193.881366398</v>
       </c>
       <c r="BN84" s="9">
-        <v>17770528.226400699</v>
+        <v>24582591.5956221</v>
       </c>
       <c r="BO84" s="9">
-        <v>17743557.8342546</v>
+        <v>24345874.6217057</v>
       </c>
       <c r="BP84" s="9">
-        <v>17584164.583524201</v>
+        <v>24004923.3357797</v>
       </c>
       <c r="BQ84" s="9">
-        <v>17383869.1827939</v>
+        <v>23622845.3221117</v>
       </c>
       <c r="BR84" s="9">
-        <v>17142671.632063501</v>
+        <v>23183963.760056701</v>
       </c>
       <c r="BS84" s="9">
-        <v>16860571.931333199</v>
+        <v>22582325.201719701</v>
       </c>
     </row>
     <row r="85" spans="35:71" x14ac:dyDescent="0.25">
@@ -8824,51 +8824,51 @@
       </c>
       <c r="AK85">
         <f t="shared" si="15"/>
-        <v>20647252.408292402</v>
+        <v>28917188.730918098</v>
       </c>
       <c r="AL85">
         <f t="shared" si="14"/>
-        <v>20722674.613880798</v>
+        <v>28908585.802204698</v>
       </c>
       <c r="AM85">
         <f t="shared" si="14"/>
-        <v>20708674.875266701</v>
+        <v>28885336.0471026</v>
       </c>
       <c r="AN85">
         <f t="shared" si="14"/>
-        <v>20694313.311638601</v>
+        <v>28855989.770446502</v>
       </c>
       <c r="AO85">
         <f t="shared" si="14"/>
-        <v>20539266.071575802</v>
+        <v>28596435.432257701</v>
       </c>
       <c r="AP85">
         <f t="shared" si="14"/>
-        <v>20406425.6155129</v>
+        <v>28366493.718584999</v>
       </c>
       <c r="AQ85">
         <f t="shared" si="14"/>
-        <v>20366434.3487879</v>
+        <v>28135796.628657199</v>
       </c>
       <c r="AR85">
         <f t="shared" si="14"/>
-        <v>20354553.314773899</v>
+        <v>27918227.469912201</v>
       </c>
       <c r="AS85">
         <f t="shared" si="14"/>
-        <v>20262426.424704202</v>
+        <v>27661654.550165702</v>
       </c>
       <c r="AT85">
         <f t="shared" si="14"/>
-        <v>20115763.334634501</v>
+        <v>27345020.386548299</v>
       </c>
       <c r="AU85">
         <f t="shared" si="14"/>
-        <v>19914564.044564798</v>
+        <v>26952648.1584148</v>
       </c>
       <c r="AV85">
         <f t="shared" si="14"/>
-        <v>19658828.5544951</v>
+        <v>26381827.239493299</v>
       </c>
       <c r="BF85" s="9" t="s">
         <v>17</v>
@@ -8877,40 +8877,40 @@
         <v>15</v>
       </c>
       <c r="BH85" s="9">
-        <v>20647252.408292402</v>
+        <v>28917188.730918098</v>
       </c>
       <c r="BI85" s="9">
-        <v>20719181.027880799</v>
+        <v>28904923.531236999</v>
       </c>
       <c r="BJ85" s="9">
-        <v>20702066.534200002</v>
+        <v>28878487.983876701</v>
       </c>
       <c r="BK85" s="9">
-        <v>20682611.953238599</v>
+        <v>28844199.558833599</v>
       </c>
       <c r="BL85" s="9">
-        <v>20519461.257975802</v>
+        <v>28573639.7129029</v>
       </c>
       <c r="BM85" s="9">
-        <v>20380367.912046298</v>
+        <v>28335160.210197899</v>
       </c>
       <c r="BN85" s="9">
-        <v>20335834.7853879</v>
+        <v>28097494.259624898</v>
       </c>
       <c r="BO85" s="9">
-        <v>20319957.2534406</v>
+        <v>27873713.6208799</v>
       </c>
       <c r="BP85" s="9">
-        <v>20216028.303704198</v>
+        <v>27597444.0108109</v>
       </c>
       <c r="BQ85" s="9">
-        <v>20071197.203967799</v>
+        <v>27280047.673</v>
       </c>
       <c r="BR85" s="9">
-        <v>19885463.954231501</v>
+        <v>26905847.786801901</v>
       </c>
       <c r="BS85" s="9">
-        <v>19658828.5544951</v>
+        <v>26381827.239493299</v>
       </c>
     </row>
     <row r="86" spans="35:71" x14ac:dyDescent="0.25">
@@ -8921,40 +8921,40 @@
         <v>13</v>
       </c>
       <c r="BH86" s="9">
-        <v>15774861.2803644</v>
+        <v>22026789.267604399</v>
       </c>
       <c r="BI86" s="9">
-        <v>15859822.1987023</v>
+        <v>22062118.046998899</v>
       </c>
       <c r="BJ86" s="9">
-        <v>15871657.6687405</v>
+        <v>22080251.231191501</v>
       </c>
       <c r="BK86" s="9">
-        <v>15901653.461367</v>
+        <v>22125044.7527234</v>
       </c>
       <c r="BL86" s="9">
-        <v>15792930.9028625</v>
+        <v>21972325.3035082</v>
       </c>
       <c r="BM86" s="9">
-        <v>15690110.418884501</v>
+        <v>21827225.164725099</v>
       </c>
       <c r="BN86" s="9">
-        <v>15644938.413747501</v>
+        <v>21626934.833045099</v>
       </c>
       <c r="BO86" s="9">
-        <v>15626801.681165799</v>
+        <v>21426644.501365099</v>
       </c>
       <c r="BP86" s="9">
-        <v>15503396.298257099</v>
+        <v>21154968.901147101</v>
       </c>
       <c r="BQ86" s="9">
-        <v>15325454.7153484</v>
+        <v>20821996.041665301</v>
       </c>
       <c r="BR86" s="9">
-        <v>15092976.932439599</v>
+        <v>20413285.1176675</v>
       </c>
       <c r="BS86" s="9">
-        <v>14805962.9495309</v>
+        <v>19822857.763708699</v>
       </c>
     </row>
     <row r="87" spans="35:71" x14ac:dyDescent="0.25">
@@ -8965,40 +8965,40 @@
         <v>14</v>
       </c>
       <c r="BH87" s="9">
-        <v>18160832.902933899</v>
+        <v>25469993.761509299</v>
       </c>
       <c r="BI87" s="9">
-        <v>18199337.665273499</v>
+        <v>25430626.613748599</v>
       </c>
       <c r="BJ87" s="9">
-        <v>18171740.789873399</v>
+        <v>25391581.2266079</v>
       </c>
       <c r="BK87" s="9">
-        <v>18130184.952673201</v>
+        <v>25330643.685874902</v>
       </c>
       <c r="BL87" s="9">
-        <v>17980095.042698901</v>
+        <v>25082779.225556102</v>
       </c>
       <c r="BM87" s="9">
-        <v>17852211.916724499</v>
+        <v>24864527.389753498</v>
       </c>
       <c r="BN87" s="9">
-        <v>17801127.7898007</v>
+        <v>24620893.9646543</v>
       </c>
       <c r="BO87" s="9">
-        <v>17778153.895587899</v>
+        <v>24390388.470737901</v>
       </c>
       <c r="BP87" s="9">
-        <v>17630562.7045242</v>
+        <v>24069133.875134502</v>
       </c>
       <c r="BQ87" s="9">
-        <v>17428435.3134606</v>
+        <v>23687818.035660099</v>
       </c>
       <c r="BR87" s="9">
-        <v>17171771.722396899</v>
+        <v>23230764.1316696</v>
       </c>
       <c r="BS87" s="9">
-        <v>16860571.931333199</v>
+        <v>22582325.201719701</v>
       </c>
     </row>
     <row r="88" spans="35:71" x14ac:dyDescent="0.25">
@@ -9009,40 +9009,40 @@
         <v>15</v>
       </c>
       <c r="BH88" s="9">
-        <v>20647252.408292402</v>
+        <v>28917188.730918098</v>
       </c>
       <c r="BI88" s="9">
-        <v>20722674.613880798</v>
+        <v>28908585.802204698</v>
       </c>
       <c r="BJ88" s="9">
-        <v>20708674.875266701</v>
+        <v>28885336.0471026</v>
       </c>
       <c r="BK88" s="9">
-        <v>20694313.311638601</v>
+        <v>28855989.770446502</v>
       </c>
       <c r="BL88" s="9">
-        <v>20539266.071575802</v>
+        <v>28596435.432257701</v>
       </c>
       <c r="BM88" s="9">
-        <v>20406425.6155129</v>
+        <v>28366493.718584999</v>
       </c>
       <c r="BN88" s="9">
-        <v>20366434.3487879</v>
+        <v>28135796.628657199</v>
       </c>
       <c r="BO88" s="9">
-        <v>20354553.314773899</v>
+        <v>27918227.469912201</v>
       </c>
       <c r="BP88" s="9">
-        <v>20262426.424704202</v>
+        <v>27661654.550165702</v>
       </c>
       <c r="BQ88" s="9">
-        <v>20115763.334634501</v>
+        <v>27345020.386548299</v>
       </c>
       <c r="BR88" s="9">
-        <v>19914564.044564798</v>
+        <v>26952648.1584148</v>
       </c>
       <c r="BS88" s="9">
-        <v>19658828.5544951</v>
+        <v>26381827.239493299</v>
       </c>
     </row>
     <row r="97" spans="22:42" x14ac:dyDescent="0.25">
@@ -9066,6 +9066,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AI76:AV76"/>
+    <mergeCell ref="BK45:BX45"/>
+    <mergeCell ref="A59:AV59"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="H60:N60"/>
+    <mergeCell ref="O60:U60"/>
+    <mergeCell ref="V60:AB60"/>
     <mergeCell ref="BC2:BP2"/>
     <mergeCell ref="BF75:BS75"/>
     <mergeCell ref="A1:U1"/>
@@ -9074,13 +9081,6 @@
     <mergeCell ref="AI2:AV2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="H3:N3"/>
-    <mergeCell ref="AI76:AV76"/>
-    <mergeCell ref="BK45:BX45"/>
-    <mergeCell ref="A59:AV59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="H60:N60"/>
-    <mergeCell ref="O60:U60"/>
-    <mergeCell ref="V60:AB60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
